--- a/04_上线/《UiBot 实施实践 RPA 项目机器人上线部署清单》.xlsx
+++ b/04_上线/《UiBot 实施实践 RPA 项目机器人上线部署清单》.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiBot WorkSpace\独白KOY工作室_高磊磊_17610158976\04_上线\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724AC08-C04F-45BA-8A7C-3DFDB09EC8C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="2" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
   <si>
     <t>XXX项目机器人上线部署清单</t>
   </si>
@@ -68,19 +74,29 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>Win10电脑一台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome浏览器（需安装UB插件）
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office Excel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,24 +124,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -134,125 +133,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,7 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399914548173467"/>
+        <fgColor theme="3" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,198 +166,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399945066682943"/>
+        <fgColor theme="3" tint="0.39991454817346722"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -524,255 +231,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,93 +259,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -896,11 +320,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1207,196 +637,194 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1"/>
-    <row r="5" ht="25.5" customHeight="1" spans="5:10">
-      <c r="E5" s="7" t="s">
+    <row r="1" spans="5:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="5:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="5:10">
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="5:10">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" ht="14.25" spans="5:10">
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" spans="5:10">
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="5:10">
-      <c r="E10" s="10" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="5:10">
-      <c r="E11" s="12" t="s">
+    <row r="11" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12">
         <v>43951</v>
       </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" ht="14.25" spans="5:10">
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" ht="14.25" spans="5:10">
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" ht="14.25" spans="5:10">
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" ht="14.25" spans="5:10">
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="5:10">
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" ht="14.25" spans="5:10">
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" ht="14.25" spans="5:10">
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" ht="15.95" customHeight="1" spans="5:10">
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="5:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="5:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="5:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="E5:J7"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="49.25" customWidth="1"/>
@@ -1405,7 +833,7 @@
     <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1422,20 +850,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5">
+      <c r="B2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1443,12 +875,14 @@
         <v>16</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:5">
+      <c r="D3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1461,7 +895,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1474,7 +908,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="31.5" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1487,7 +921,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="31.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1500,7 +934,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1513,7 +947,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="31.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1526,7 +960,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="31.5" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1539,7 +973,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1552,7 +986,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="31.5" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1565,7 +999,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="31.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1578,7 +1012,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="31.5" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1591,7 +1025,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="31.5" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1604,7 +1038,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" ht="31.5" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1617,7 +1051,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="31.5" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1630,7 +1064,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="27" spans="1:5">
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1643,7 +1077,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="27" spans="1:5">
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1656,7 +1090,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="27" spans="1:5">
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1669,7 +1103,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="27" spans="1:5">
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1683,31 +1117,29 @@
       <c r="E21" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2:C21 E3:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2:C21 E3:E21" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="49.25" customWidth="1"/>
@@ -1716,7 +1148,7 @@
     <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="31.5" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1746,7 +1178,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1759,7 +1191,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1772,7 +1204,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1785,7 +1217,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="31.5" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1798,7 +1230,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="31.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1811,7 +1243,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1824,7 +1256,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="31.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1837,7 +1269,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="31.5" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1850,7 +1282,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1863,7 +1295,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" ht="31.5" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1876,7 +1308,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="31.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1889,7 +1321,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="31.5" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1902,7 +1334,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" ht="31.5" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1915,7 +1347,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" ht="31.5" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1928,7 +1360,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="31.5" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1941,7 +1373,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="27" spans="1:5">
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1954,7 +1386,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="27" spans="1:5">
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1967,7 +1399,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="27" spans="1:5">
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1980,7 +1412,7 @@
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="27" spans="1:5">
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1994,13 +1426,13 @@
       <c r="E21" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2:C21 E3:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 C2:C21 E3:E21" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>